--- a/02_MasterWifoMannheim/03_Courses/Course68.xlsx
+++ b/02_MasterWifoMannheim/03_Courses/Course68.xlsx
@@ -1,37 +1,142 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr/>
-  <workbookProtection/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://mailunimannheimde-my.sharepoint.com/personal/pstapf_mail_uni-mannheim_de/Documents/Uni/Master/Masterarbeit/Course_Suggestion/02_MasterWifoMannheim/03_Courses/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="1" documentId="11_2B59D2BFD3D05905DB9B36115920F87558D3FE05" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{760701B9-EE0E-4F7D-B89D-66024D61FC1E}"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
+  <si>
+    <t>Module</t>
+  </si>
+  <si>
+    <t>FIN 541 Corporate Finance I - Case Study (Capital Structure, Cost of Capital and Valuation)</t>
+  </si>
+  <si>
+    <t>Contents</t>
+  </si>
+  <si>
+    <t>Corporate part of the curriculum is on shareholder value and company valuation. The focus of the course will be on solving several case studies in groups of up to three students. Each of these cases has to be handed in and will contribute to the final grade. The hands-on format of this course ensures that students are able to transfer the theoretical concepts encountered in the lecture (FIN540) to real world problems.</t>
+  </si>
+  <si>
+    <t>Learning outcomes</t>
+  </si>
+  <si>
+    <t>After completing this course, students will be able to value companies using state-of-the-art tools such as DCF, Residual Income, EVA, and Multiples. In particular, participants will be able to determine the cost of capital for corporations and projects using real world data. Participants will be able to identify value drivers by applying financial ratio analysis and analyse the impact of those value drivers on the firm value. perform event studies in order to analyse how capital markets react to important corporate events like merger announcements or earnings announcements. implement the theoretical concepts discussed in the lecture (FIN 540) using Microsoft Excel.</t>
+  </si>
+  <si>
+    <t>Prerequisites</t>
+  </si>
+  <si>
+    <t>Benötigte Kurse</t>
+  </si>
+  <si>
+    <t>FIN 540</t>
+  </si>
+  <si>
+    <t>Obligatory registration</t>
+  </si>
+  <si>
+    <t>Further Information on the registration:Website of the chair, “Student Portal” (more information about the registration process is available here)</t>
+  </si>
+  <si>
+    <t>Courses Hours per week Self-study Case seminar 1 7 Exercise sessions (Excel) 1 1</t>
+  </si>
+  <si>
+    <t>ECTS</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>Form of assessment</t>
+  </si>
+  <si>
+    <t>Case write-ups (75%), class participation in case discussions (25%)</t>
+  </si>
+  <si>
+    <t>Preliminary course work -</t>
+  </si>
+  <si>
+    <t>Lecturer/Person in charge</t>
+  </si>
+  <si>
+    <t>Prof. Ernst Maug, Ph.D</t>
+  </si>
+  <si>
+    <t>Duration of module</t>
+  </si>
+  <si>
+    <t>1 semester</t>
+  </si>
+  <si>
+    <t>Offering</t>
+  </si>
+  <si>
+    <t>FWS</t>
+  </si>
+  <si>
+    <t>Language</t>
+  </si>
+  <si>
+    <t>English</t>
+  </si>
+  <si>
+    <t>Program-specific educational goals</t>
+  </si>
+  <si>
+    <t>Grade</t>
+  </si>
+  <si>
+    <t>graded</t>
+  </si>
+  <si>
+    <t>Range of application</t>
+  </si>
+  <si>
+    <t>M.Sc. MMM, M.Sc. MMBR, M.Sc. Bus. Edu., M.Sc. Bus. Inf., M.Sc. Bus. Math., M.Sc. Econ.</t>
+  </si>
+  <si>
+    <t>and Insurance (FIN), Accounting and Taxation (AAT), Mathematical and Statistical Foundations (MSF), FIN 540</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -46,93 +151,43 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -420,217 +475,148 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="n">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="1">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="n">
+      <c r="B1" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>Module</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>FIN 541 Corporate Finance I - Case Study (Capital Structure, Cost of Capital and Valuation)</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>Contents</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>Corporate part of the curriculum is on shareholder value and company valuation. The focus of the course will be on solving several case studies in groups of up to three students. Each of these cases has to be handed in and will contribute to the final grade. The hands-on format of this course ensures that students are able to transfer the theoretical concepts encountered in the lecture (FIN540) to real world problems.</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>Learning outcomes</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>After completing this course, students will be able to value companies using state-of-the-art tools such as DCF, Residual Income, EVA, and Multiples. In particular, participants will be able to determine the cost of capital for corporations and projects using real world data. Participants will be able to identify value drivers by applying financial ratio analysis and analyse the impact of those value drivers on the firm value. perform event studies in order to analyse how capital markets react to important corporate events like merger announcements or earnings announcements. implement the theoretical concepts discussed in the lecture (FIN 540) using Microsoft Excel.</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>Prerequisites</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>and Insurance (FIN), Accounting and Taxation (AAT), Mathematical and Statistical Foundations (MSF)</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>Benötigte Kurse</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>FIN 540</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>Obligatory registration</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Further Information on the registration:Website of the chair, “Student Portal” (more information about the registration process is available here)</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>Courses Hours per week Self-study Case seminar 1 7 Exercise sessions (Excel) 1 1</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr"/>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>ECTS</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>Form of assessment</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>Case write-ups (75%), class participation in case discussions (25%)</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Preliminary course work -</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr"/>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Lecturer/Person in charge</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>Prof. Ernst Maug, Ph.D</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Duration of module</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>1 semester</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>Offering</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>FWS</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>Language</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>English</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>Program-specific educational goals</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr"/>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>Grade</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>graded</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>Range of application</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>M.Sc. MMM, M.Sc. MMBR, M.Sc. Bus. Edu., M.Sc. Bus. Inf., M.Sc. Bus. Math., M.Sc. Econ.</t>
-        </is>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>17</v>
+      </c>
+      <c r="B12" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>19</v>
+      </c>
+      <c r="B13" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>21</v>
+      </c>
+      <c r="B14" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>26</v>
+      </c>
+      <c r="B17" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>28</v>
+      </c>
+      <c r="B18" t="s">
+        <v>29</v>
       </c>
     </row>
   </sheetData>
